--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,46 +536,54 @@
           <t>Mumbai</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Analyst (Client1:OPP000001)</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RID02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jane Doe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdUhHwVeOQlFlxbDddMIaIQB8hcInFY_F0yN2J1me4SGBw</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No Role</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -565,25 +565,61 @@
           <t>Personal</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdUhHwVeOQlFlxbDddMIaIQB8hcInFY_F0yN2J1me4SGBw</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>No Role</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>Analyst (Client1:OPP000001);Tech Lead (Client3:OPP000002)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -1,37 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A25FD4-4DFE-B849-A8FA-C5C65F152985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Top Skills</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Current organization</t>
+  </si>
+  <si>
+    <t>Screener Name</t>
+  </si>
+  <si>
+    <t>Screener comments</t>
+  </si>
+  <si>
+    <t>First Interviewer name</t>
+  </si>
+  <si>
+    <t>First interviewer comments</t>
+  </si>
+  <si>
+    <t>Identified for roles</t>
+  </si>
+  <si>
+    <t>Years of experience</t>
+  </si>
+  <si>
+    <t>Current CTC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +100,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,205 +424,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Entry ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Top Skills</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Resume</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Current organization</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Screener Name</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Screener comments</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>First Interviewer name</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>First interviewer comments</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Identified for roles</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Years of experience</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Current CTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RID01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pipeline</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESRvotbufMNPvnVMkhoqzdcBLKcItydMuNHg4QsMyG5xBw</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Analyst (Client1:OPP000001)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RID02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdUhHwVeOQlFlxbDddMIaIQB8hcInFY_F0yN2J1me4SGBw</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Analyst (Client1:OPP000001);Tech Lead (Client3:OPP000002)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -1,91 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A25FD4-4DFE-B849-A8FA-C5C65F152985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Entry ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Top Skills</t>
-  </si>
-  <si>
-    <t>Resume</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Current organization</t>
-  </si>
-  <si>
-    <t>Screener Name</t>
-  </si>
-  <si>
-    <t>Screener comments</t>
-  </si>
-  <si>
-    <t>First Interviewer name</t>
-  </si>
-  <si>
-    <t>First interviewer comments</t>
-  </si>
-  <si>
-    <t>Identified for roles</t>
-  </si>
-  <si>
-    <t>Years of experience</t>
-  </si>
-  <si>
-    <t>Current CTC</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,58 +420,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Entry ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Top Skills</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Current organization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Screener Name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Screener comments</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>First Interviewer name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>First interviewer comments</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Identified for roles</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Years of experience</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Current CTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RID01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pipeline</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESRvotbufMNPvnVMkhoqzdcBLKcItydMuNHg4QsMyG5xBw</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Analyst (Client2:OPP000001)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -1,37 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAF6680-6A09-D343-89FF-BBAD1A0755CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Top Skills</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Current organization</t>
+  </si>
+  <si>
+    <t>Screener Name</t>
+  </si>
+  <si>
+    <t>Screener comments</t>
+  </si>
+  <si>
+    <t>First Interviewer name</t>
+  </si>
+  <si>
+    <t>First interviewer comments</t>
+  </si>
+  <si>
+    <t>Identified for roles</t>
+  </si>
+  <si>
+    <t>Years of experience</t>
+  </si>
+  <si>
+    <t>Current CTC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +100,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,134 +424,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Entry ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Top Skills</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Resume</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Current organization</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Screener Name</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Screener comments</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>First Interviewer name</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>First interviewer comments</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Identified for roles</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Years of experience</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Current CTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RID01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pipeline</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESRvotbufMNPvnVMkhoqzdcBLKcItydMuNHg4QsMyG5xBw</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Analyst (Client2:OPP000001)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -1,91 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAF6680-6A09-D343-89FF-BBAD1A0755CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Entry ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Top Skills</t>
-  </si>
-  <si>
-    <t>Resume</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Current organization</t>
-  </si>
-  <si>
-    <t>Screener Name</t>
-  </si>
-  <si>
-    <t>Screener comments</t>
-  </si>
-  <si>
-    <t>First Interviewer name</t>
-  </si>
-  <si>
-    <t>First interviewer comments</t>
-  </si>
-  <si>
-    <t>Identified for roles</t>
-  </si>
-  <si>
-    <t>Years of experience</t>
-  </si>
-  <si>
-    <t>Current CTC</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,57 +420,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Entry ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Top Skills</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Resume</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Current organization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Screener Name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Screener comments</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>First Interviewer name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>First interviewer comments</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Identified for roles</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Years of experience</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Current CTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RID01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Prachi Kakade</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GPU and AI </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWfvt-M-EXhLpyveIxn170EB53G_BlR-ErLeWsc9SkYltg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cloud4C</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Presales architect Cloud (LnT Cloud:OPP000001)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,14 +554,68 @@
           <t>Presales architect Cloud (LnT Cloud:OPP000001)</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="M2" t="n">
+        <v>4</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>12LPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RID02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Vivek Tellis</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>On prem and cloud infra</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sunfinity</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Architect (KPMG:OPP000003);Presales architect Cloud (LnT Cloud:OPP000001)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>14L</t>
         </is>
       </c>
     </row>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,16 +608,62 @@
           <t>Hybrid Cloud Architect (KPMG:OPP000003);Presales architect Cloud (LnT Cloud:OPP000001)</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="M3" t="n">
+        <v>12</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>14L</t>
         </is>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RID03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Shiva Gajula</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">internal </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Infra , cloud , cyber</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EViLj4_JAxlJqVoZDjRQbyQBRtVd0MGVGrZyKmQDmZmgJw</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Cloud Native &amp; App Security (KPMG:OPP000004)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,74 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RID04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mohamed Arsath</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dot net, sql</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWJo9co0Yy9Dv9IcHRKSECIB-_MlfYsdr0luqRvZqlfEug</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Blue Yonder</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Sachin Bhagwat</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer (KPMG:OPP000005)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2 years</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>10 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,6 +733,74 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RID05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHANDRASHEKHAR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dot net, sql</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No Resume Uploaded</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Particle Black Private Ltd</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Sachin Bhagwat</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer (KPMG:OPP000005)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4 years</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>8 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,6 +801,74 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RID06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHANDRASHEKHAR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dot net, sql</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ER3liyElVOFApN785dDJtwQBgkUz1RVSpV0THOBYAN5_fw</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Particle Black Private Ltd</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Sachin Bhagwat</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer (KPMG:OPP000005)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4 years</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>8 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,6 +869,74 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RID07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHAITRA MANJU R</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Dot net, sql</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfjHJB13nuxKi-YG9KE0JmIB2I0u75hiZQ-2rFiz7XWwew</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Happiest Minds</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Sachin Bhagwat</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer (KPMG:OPP000005)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.8 yrs</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>10 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,70 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RID08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Deepak Misal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Storage, Hybrid cloud, AWS, Azure, On prem</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESLjiCM15XxDhfCun3jCCpkB1_FHZagiajijpR13IRWYTw</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>HCL Tech</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Profile looks food, but already his interview is scheduled through other vendor with HPE.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Architect (KPMG:OPP000003)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>18 yrs</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>30 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +1001,74 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RID09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>JAGADISH UTTARKABAT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cloud, Azure, On prem</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESbwH35afrVAqGK9vqDw_BgBJPu97xPQjYAnB0gbeGEeJw</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fragma Data Systems</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Looks good, interview scheduled</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Architect (KPMG:OPP000003)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>13 yrs</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>24 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,6 +1069,74 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RID10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Suresh B. Lalge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cloud, AWS, Azure, On Prem</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERSPM05I_yBOs0LGEV4FP3QBa5ZarTpN9RWCnTUs2oboIQ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>HCL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Looks good, interview scheduled</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Architect (KPMG:OPP000003)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>13 yrs</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>23.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,6 +1137,74 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RID11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Swapnil B Kondvilkar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cloud, AWS, Azure</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfRPW83kzz9Hq3kEoxGwIdoBTpWRVUoK3i8efFZnVeGcng</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SAS Institute</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Looks good, interview scheduled</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Architect (KPMG:OPP000003)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>16 yrs</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>40 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,6 +1205,74 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RID12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Md Afroz Quadri </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cybersecurity, Azure, AWS</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESvoANnnF-FPrJalGLi02ssBAw2iWPPeAvH3LILYjThurA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Deloitee</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Looks good, interview scheduled</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Cloud Native  Security Consultant  (KPMG:OPP000006)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>13 yrs</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>43.29 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,6 +1273,78 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RID13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mohamed Arsath A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>.net, C#, React</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXTMYWHu_BhLoyfm6KAzA4UBxkZE2i3Neswp5ccQubKuEg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Blue Yonder</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Looks good, interview scheduled</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Sachin Bhagwat</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Selected, sharing with KPMG</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer (KPMG:OPP000005)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2 yrs</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>10 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1345,74 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RID14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BEJUGAM SHIVA KUMAR</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dot net, Python, SQL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETE-3qH79WhKmC78vmsMl-ABD5b-x8OnFETyYNmCEUqOfA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cornerstone Ondemand</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Looks good, interview scheduled</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Sachin Bhagwat</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer (KPMG:OPP000005)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>5 yrs</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>17.2 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,6 +1413,74 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RID15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vaishnavi Sekar</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>dot net, python, sql</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXFq7I_uAnREtFUynQ5Ez6cBzOWWAKKdrZhKZIdEDvh0Wg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pumo Technovation</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Looks good, interview scheduled</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Sachin Bhagwat</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer (KPMG:OPP000005)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4.5 yrs</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>5.1 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -716,7 +716,11 @@
           <t>Sachin Bhagwat</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Arshath is pretty well theoretically. His hands on experience is limited though he understands things conceptually well. Ideally, we should give some hands-on development as well. If not, we can progress with him.</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Full stack Dot net developer (KPMG:OPP000005)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,6 +1485,78 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RID16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sekhar Bag</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Talent Pipe</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dot net, SQL, React</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERGCo9V9UKhIkgTWCBLQKaQBcaTNLG9-jv8-Lju743KenA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PWC India</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Talent Pipe</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Looks good</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Sachin Bhagwat</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Looks good, can share ahead</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer (KPMG:OPP000005)</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3 yrs</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>11 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,6 +1557,78 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RID17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahmad Bardolia </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Storage, Hybrid cloud, AWS, Azure, On prem</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ef24Y-Omzi5PiDjM7aGebl0BcOtK4_HQYWb88PHO6VfLEQ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tom Tom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Profile looks good, shared ahead with KPMG</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Architect (KPMG:OPP000003)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>10 yrs</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>35 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,6 +1629,70 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RID18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Niveda Veeramani</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Talent pipe</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dot net, sql, biztalk</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUEN9fy7MqFOnSTvivp4LhsBQ-0HTcKn39UrrzydeuwNPQ</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Technical Consultant-.Net Core Biztalk (KPMG:OPP000007)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>8 yrs</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>18.34 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,6 +1693,70 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RID19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Niveda Veeramani</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Talent pipe</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dot net, sql, biztalk</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUEN9fy7MqFOnSTvivp4LhsBQ-0HTcKn39UrrzydeuwNPQ</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Technical Consultant-.Net Core Biztalk (KPMG:OPP000007)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>8 yrs</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>18.34 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1632,7 +1632,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RID18</t>
+          <t>RID19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1688,70 +1688,6 @@
         </is>
       </c>
       <c r="N19" t="inlineStr">
-        <is>
-          <t>18.34 lpa</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>RID19</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Niveda Veeramani</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Talent pipe</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Dot net, sql, biztalk</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUEN9fy7MqFOnSTvivp4LhsBQ-0HTcKn39UrrzydeuwNPQ</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Capgemini</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Rashi Goel</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Profile looks good</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Technical Consultant-.Net Core Biztalk (KPMG:OPP000007)</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>8 yrs</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
         <is>
           <t>18.34 lpa</t>
         </is>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,6 +1693,70 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RID20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Raju Pudhari</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Talent pipe</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dot net, sql, Biztalk</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcrxK70t2AZAjlVlI0GaF9sB09DiUZvRgQoRbIWNYqdLyQ</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Corefront Technologies</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Looks good, shared with KPMG</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Technical Consultant-.Net Core Biztalk (KPMG:OPP000007)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>5+ yrs</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>14 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1757,6 +1757,74 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RID21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jhanvi Patil</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Anshuman's Reference</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Vm ware</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZqIrqyzRdVFpyS-oGYiMmIBZ_GI4YK274-mlECb7exoHg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>HCL Technologies</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Anshuman and Rashi</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Overall looks good</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Mahesh Lokhande</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>5+ yrs</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>7 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1825,6 +1825,70 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RID22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RUBIKA AWACHAT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Vm ware</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZN3etACjJhMlM9aMSzHM-EBV-VD_dcKvFOSMjCFrjav6Q</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alchemy Techsol India Pvt.ltd</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>More exposure on Windows</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>5.8 yrs</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>5.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,6 +1889,70 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RID23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAJAN ARIKAR </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VMware</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdSBUuUpWH1KrwFegkpxxRgB4P223UgXvD0YMChnAiMaSg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rashi </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Overall looks good</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>7 yrs</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5.1 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,6 +1953,78 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RID24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vyshak Srivatsa R</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EeDY5E_eZ9VEt8tXHR3Dbb4B4SAdlXF0vDzjGSRNB6hzrg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Over all good</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>More on cloud, no exposure to Virtualization</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>12 yrs</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>54 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2025,6 +2025,78 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RID25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Md Azhar Uddin </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUOuxY-iX_NGnhu1ztT5azYBlwgGw5j-EYWNHSELueonTg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>R4 Solutions</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rashi </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Overall looks good</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>More exposure on cloud, less exposure to Virtaualization</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>12 yrs</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>37 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2097,6 +2097,78 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RID26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MANJULDAS SOLANKE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETJQEUUZNnlPkDcXhCCGSi8BcV5Dlk66XevTRBan0ER_dA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Kotak Mahinda Bank</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>overall looks good</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Less exposure to Virtualization</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>14 yrs</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>56 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,6 +2169,78 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RID27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ismail Raaj</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESui9DxvCLJKneXQiZhBQ4gBNTtpPCOa_mVf3Nw8PzDZnQ</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>HiLabs</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Overall looks good</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Less Exposure to Virtualization</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>12 yrs</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>56 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2241,6 +2241,78 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RID28</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AKSHAY BETKAR </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cloud</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EW4IXoOK34JIowaymycHKLUBexwvf5fsOem33LpWKn7glg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Nykaa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Overall looks good</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Less exposure to Virtualization</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>10 yrs</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>26.65 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,6 +2313,74 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RID29</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Swati Gupta</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Salesforce, QA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed7f4Xl12F1Ni_-uKzit00cBcmYf-lFbjelLyTa6pXfQlA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>AQM Technologies</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Looks good</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Amit</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Salesforce QA (PTC:OPP000011)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>3 yrs</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2381,6 +2381,74 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RID30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Govind Galande</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcHcEliXg3tHiFXthf9wENEB3jIL76LBuwDZSs5MrvaP4Q</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Enzigma Solutions LLP</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Looks good</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Amit</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Salesforce QA (PTC:OPP000011)</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2.8 yrs</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2449,6 +2449,74 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RID31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SHWETASHINDE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EYTs-j-h0QZJiAAUe2LcaDMBEX1jSi1mfN_qFuiPEwIOzQ</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Profile Looks good</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Amit</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Salesforce QA (PTC:OPP000011)</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2 yrs</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>3 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2517,6 +2517,74 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RID32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Gaurav Mahesh Mali</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfZNE8DZ2ghLtyOBkY5z6iUBk_yZ82xRn8TdYpEnvbIAwQ</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Techila Global Services</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Amit</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Salesforce QA (PTC:OPP000011)</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>3 yrs</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>4.8 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2585,6 +2585,74 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RID33</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Satyendra Prasad</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Vm ware</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWizaKjGIwtEusBO88XFAZQBYXAgEzxLWnLe7U-slX4ONw</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Delhi, he is ready to relocate to Nagpur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>HCL</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Mahesh and Anshuman</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>7+ yrs</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>9 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,6 +2653,74 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RID34</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SHAILESH NIKAM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Anshuman's Reference</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VM ware</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESKKVNdwMKJAokJd15XA5vsB_nzFAMACj3dpea1ySPNUAA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>HCL</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Anshuman &amp; Rashi</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Looks good</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Mahesh and Anshuman</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>3  yrs</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>9 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2721,6 +2721,74 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RID35</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Dinesh Soni</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Vmware</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcTkmKknGRxKsUAvwLfyUywBUNkHgDP0ZR5o2ykapbSeVg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Pune, open for Nagpur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Overall Profile looks good</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Mahesh and Anshuman</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>10 yrs</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>24 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2789,6 +2789,70 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RID36</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ROHITKUMAR DNYANESHWAR SALUNKHE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yogesh Lokhande's Reference</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Vm ware</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EY3XbQO0hpdHrU13TKt6RDABV7JohNWLjIjcLi7zufRT-w</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Pune, open for Nagpur Location</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Vodafone Idea</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Profile looks good, but comm skills are average</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>9 yrs</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>22 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,6 +2853,74 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RID37</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Akash Mishra</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VM ware</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUP7CVMdQvRDlPO__RzLtKABdLUT97ZlU8rqwv1fr0VwqA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Delhi, open for relocation to Nagpur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Metlife</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Overall profile looks good</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Mahesh and Anshuman</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>5 yrs</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>13 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -1808,7 +1808,14 @@
           <t>Mahesh Lokhande</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Feedback:
+The candidate has good awareness of operational aspects and appears comfortable with day-to-day activities. However, her understanding of the underlying technology features and how they function is limited. She was not able to demonstrate sufficient depth in explaining core technical concepts.
+Decision:
+Based on the above, my recommendation is negative for this role.</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>VM ware Resident Engineer (RBI:OPP000008)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -2643,7 +2643,14 @@
           <t>Mahesh and Anshuman</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Candidate Name : Satyendra Prasad
+Interview Feedback:
+The candidate has a fair understanding of VMware features, but lacks knowledge of command-line operations for ESXi and vCenter. During the discussion, his answers were technically correct in some areas; however, the delivery lacked confidence, and this was evident in both his tone and the way he responded. This lack of confidence may affect his effectiveness in client-facing scenarios.
+Based on the role requirements, I do not recommend proceeding further with Satyendra.</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>VM ware Resident Engineer (RBI:OPP000008)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -1942,8 +1942,18 @@
           <t>Overall looks good</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Rajan has a good level of operational knowledge and is comfortable with routine tasks, which aligns well with L1 responsibilities. However, the L2/L3 expertise mentioned in his CV was not demonstrated during the discussion. He was unable to explain certain fundamental VMware networking features such as VLANs, Distributed Switches, and Standard Switches.
+While his understanding of operational activities is clear, he found it difficult to address scenario-based or failure-based situations. In addition, when asked about aspects of a Resident Engineer role, such as building relationships with clients, he was not able to provide sufficient examples.
+Overall, Rajan shows potential at the L1 level, but may require further exposure, hands-on experience, and grooming to confidently handle L2/L3 responsibilities and client interactions.</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>VM ware Resident Engineer (RBI:OPP000008)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -1942,11 +1942,7 @@
           <t>Overall looks good</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>Rajan has a good level of operational knowledge and is comfortable with routine tasks, which aligns well with L1 responsibilities. However, the L2/L3 expertise mentioned in his CV was not demonstrated during the discussion. He was unable to explain certain fundamental VMware networking features such as VLANs, Distributed Switches, and Standard Switches.
@@ -2728,7 +2724,12 @@
           <t>Mahesh and Anshuman</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Not going ahead, as his experience is less.
+Client is looking for minimum 6+ yrs of experience</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>VM ware Resident Engineer (RBI:OPP000008)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2946,6 +2946,70 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RID38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PAWAN MANOJ RATHOD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cloudera, hadoop, Scala, Python</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUAy785rhrtOlDGz7eliu0IBh1HixfoBC3Md6isUDJ4Rlw</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hexaware Technologies</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Profile looks good, but he is looking for Remote opportunities</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>9.6 yrs</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>35 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3010,6 +3010,70 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RID39</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Subhajit Raha</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Cloudera, Hadoop, Scala, Python</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETMT7xmVlMFGrFPy_hhj0VMBbU8gHslwoQcWeppzH_Yf8w</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kolkata, but open for relocation </t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rashi </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>11 yrs</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>29.20 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3074,6 +3074,70 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RID40</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SHAILESH KUMAR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Cloudera, Hadoop, Scala, Python</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcJaOsvR8YNHqGlWnKiiCUwB6VMZyVdW6bpsQauSDi-PGg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>HOLCIM INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>9.5 yrs</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>29 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3138,6 +3138,70 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RID41</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SHAILESH KUMAR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Cloudera, Hadoop, Scala, Python</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcJaOsvR8YNHqGlWnKiiCUwB6VMZyVdW6bpsQauSDi-PGg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>HOLCIM INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>9.5 yrs</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>29 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3202,6 +3202,70 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RID42</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>kljhu Arindam Mukherjee</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Cloudera, Hadoop, Scala, Python</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfL4R51598BJs4IMabN9IGYBLVjeO0eRlgbZXjvc4gb7ZA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Gurugram</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Gainwell Technologies</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rashi </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Profile looks good overall</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>15.7 yrs</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>32.64</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3266,6 +3266,70 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RID43</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ROHAN MAKIN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Cloudera, Hadoop, Scala, Python</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWHKnWL_uEBBlSZz1U8VtikBKTxHeNlMRPiykIYDafRuEw</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Globallogic</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>8.5 yrs</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>33lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3330,6 +3330,74 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RID44</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sourabh Singh</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Vm ware</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERMX3XWJEDRIk89NeCFZmYUBlsfdoNYIcwQ9QQVRXsp9uw</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Profile looks good overall</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Mahesh and Anshuman</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>5 yrs</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>9.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,6 +3398,70 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RID45</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Deven Domkondwar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Vm ware</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ3iqbq57BNJptDlqo1u-4QBjGRGp7JJkqI2yJIA9DOGFg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hitachi Systems</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Profile looks good overall</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>7.6 yrs</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>8.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3462,6 +3462,70 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RID46</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Dipesh Hargude</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Vm ware</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EYq9z9P_Y85Csd5cZjE9y-ABg-f57VLKzZGtROWCaIqbrw</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Profile looks good overall</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>9 yrs</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>9 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3526,6 +3526,74 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RID47</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Anand Moharir</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Vmware</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUpbq0QQ0Z5FoC3wohvGa0IBAqYdE2Pdgor8o3DeP7Xk-A</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Clover Infotech</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Profile looks good overall</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Mahesh and Anshuman</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>8 yrs</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>13.7 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3594,6 +3594,74 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RID48</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Swadhin Sangram Sahoo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mahesh's Reference</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VM ware</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERAfU83BxApMpdM_LkIzBRkBigp6pZD-2cHvWiLvar9Xgg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Looks good overall</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Vivek</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer (RBI:OPP000008)</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>5 yrs</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>5lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3662,6 +3662,70 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RID49</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ashish Gharge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Hybrid cloud, on premise</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUhhkqiQOt1Bh80SWt0X0SABTv3zD2cY2O37LzxGNjECMA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Rackspace Technology</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Profile looks good, he seems to have exposure on on premise</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>5+ yrs</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>18.4 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3726,6 +3726,70 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RID50</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sanjeev Chaturvedi</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Hybrid cloud, on premise</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ER-XM9PI8RxIqjK2MWMOkicBJrooCdsGgScXe4P4vPsyrg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>HCL Tech</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Profile looks good, seems to have knowledge on Onpremise</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>12 yrs</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>17.36 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3790,6 +3790,70 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RID51</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ganesh Jain</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Hybrid cloud, Onpremise</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQgtstfMSFlCuWvsB1fnBCkBejqsSUI5Ea70eZDpY7mnLQ</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Profile looks really good</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>20 yrs</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>25 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3854,6 +3854,70 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RID52</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Susanta Kanrar</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Cloudera, Hadoop</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERl5KziZvtVMkbwl-0JzDIgBwqS8VgpGd6p0IL5shY7pGg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Good profile</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>20 yrs</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>30 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3918,6 +3918,70 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RID53</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SABER SADEQUE SYED</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Private cloud, public, on prem</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdOep7k2NGpPrxShDgYxIcIBnDlHAD-Kye9T16nOhQSIww</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Ensono</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Profile seems relevant, but location constraint not ready for Mumbai also not very interested for Presales role. Looking only for Technical role, also high on budget</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>18 yrs</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>44.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3982,6 +3982,70 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RID54</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SHREYAS ANGANE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Hadoop, cloud</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWqD6iEhoORFsBauo6RHpfIBHz6Z5uj9LDopiba9Odocxg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Profile is good</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>6 yrs</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>22 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4046,6 +4046,70 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RID55</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ashis Agasti</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Hadoop, Cloud</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcTwG6Y_LWhNhcpgftrj_skBPBcOJC2xhZVzMVBDvZdB3A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>VOIS</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>13 yrs</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>25 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4110,6 +4110,70 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RID56</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RAKESH ROSHAN JHA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Hadoop, cloud</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcwS7ht7IGVMi95xcjXuq8oBSQKLk82Mumcm2izSBlez8A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No employed</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Profile very relevant, but very expensive</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>20 yrs</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>60 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4174,6 +4174,70 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RID57</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Akim N. Khan</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Hybrid cloud, on prem</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EVnwRKzuUxlOiAlhu2hw6NwBfsdxzEeUyNA_Dg-mCQQ8Yw</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NTT Data</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Profile suits well.</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>14 yrs</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>19 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4238,6 +4238,70 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RID58</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RAMAMOORTHI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Hybrid cloud, on prem</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfilfByuiExOv5UNRsTNxrEBaVaNKgJM55249FvfAiUSEw</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bangalore, but open for relocation</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>OmniActive Health Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Profile looks good</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>10 yrs</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>9 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4302,6 +4302,74 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RID59</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vishal Bhimrao Gade                                                                                    </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AI, Cloud, Nvidia</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdKQw2sJUVtJjjP7PZO01jkBJjVSm8CLGUdavicH7JL7dA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Profile is good, he will get back with his availability on travelling</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>AI Cloud Architect (L&amp;T:OPP000014)</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>15 yrs</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>36 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4370,6 +4370,74 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RID60</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Atul Panmand</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AI, Cloud, Cuda</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EShiXdb3dE9BpjmiFvH7zKUBgi8-K788tEUlMr74tUKp3Q</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Ansys, INC</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Profile is good</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>AI Cloud Architect (L&amp;T:OPP000014)</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>12 yrs</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>46 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4438,6 +4438,74 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RID61</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Kullayiswamy Pinjari</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXcq_6GSL5JDo8H_0ygpvcwBsuRu4totcvpSgq51GXjI6Q</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Good profile</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>AI Cloud Architect (L&amp;T:OPP000014)</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>3.5 yrs</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>4.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4506,6 +4506,74 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RID62</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sagar Kirale</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESLenhL7TalDpHjG8h1WP0EBc1WyYv82g45pL9f6VwWueQ</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ESDS Software Solution</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Good young profile</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>AI Cloud Architect (L&amp;T:OPP000014)</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>4 yrs</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>7.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -4220,8 +4220,16 @@
           <t>Profile suits well.</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -4292,8 +4292,16 @@
           <t>Profile looks good</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -546,16 +546,30 @@
           <t>Anshuman Rai</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>profile was good</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>She got selected, but dint turn up for the client interview. now not looking for change.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Presales architect Cloud (LnT Cloud:OPP000001)</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>4</v>
+          <t>No Role</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -4106,8 +4106,16 @@
           <t>Profile looks good</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -4042,8 +4042,16 @@
           <t>Profile is good</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Selected, will share with Cloudera</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -3914,8 +3914,16 @@
           <t>Good profile</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Selected, profile shared with Cloudera</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -3786,8 +3786,16 @@
           <t>Profile looks good, seems to have knowledge on Onpremise</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Not going ahead</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -3858,8 +3858,16 @@
           <t>Profile looks really good</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -3262,8 +3262,16 @@
           <t>Profile looks good overall</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Anshuman Rai, Bala</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Selected, shared with Cloudera</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -3070,8 +3070,16 @@
           <t>Profile looks good</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Anshuman Rai, Bala</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Selected, shared with Cloudera</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>Sr. Solution Architect (Cloud Era:OPP000012)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -3738,8 +3738,16 @@
           <t>Profile looks good, he seems to have exposure on on premise</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>Hybrid Cloud Solution Architect (LnT Cloud:OPP000009)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -3675,7 +3675,11 @@
           <t>Vivek</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>VM ware Resident Engineer (RBI:OPP000008)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4672,6 +4672,74 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>RID63</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Akshay R Bhosle</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Nutanix, Vmware</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EYiYiivy8_RDgHLEcp8M27sBD04CKGN191fq_taUmmm-kA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Tech Mahindra</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Profile is relevant</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Presales Solution Architect (Galaxy Automation:OPP000015)</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>11 yrs</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>26 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4740,6 +4740,70 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RID64</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Soumili Pathak</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>VM ware, Storage, Nutanix, Backup</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EeNa-X4FLn1JuGm_IU8pADoBPg9DYdGgEOhMPzChx03UOg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Dell EMC</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Rashi Goel</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Great Profile</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Presales Solution Architect (Galaxy Automation:OPP000015)</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>13 yrs</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>20 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -4519,7 +4519,11 @@
           <t>Anshuman Rai</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>First round he cleared taken by Anshuman, but got rejected in the second round taken by Jitender from L&amp;T.</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>AI Cloud Architect (L&amp;T:OPP000014)</t>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4808,6 +4808,74 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RID65</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>GIRINDRA MOHAN</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Vmwrae, Nutanix, Dell EMC</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed5QWNnahOFCqZJLJVMVuJgBJS5gndvHyjxoRD14nIqxZw</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>HCL Tech</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Relevant for Galaxy</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Anshuman</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Presales Solution Architect (Galaxy Automation:OPP000015)</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>10 yrs</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>24.64 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4876,6 +4876,74 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RID66</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ankur</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Vmware, Nutanix</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUMUgdnu3zBKh1x8vlZ1SZQBrIt-HdruAJiwMuh9u-dZ0Q</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Good profile</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Anshuman Rai</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>No Role</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>9 yrs</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>17.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,6 +4944,70 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>RID67</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Kapil Kumar Jindal</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Naukri</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Storage, Backup, Virtualization</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EReOTl18rfZLh7MMy5Wm0h4B8vy1Lj1ox_5DIf5IYwSjQA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Paytym</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Good Profile</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Presales Solution Architect (Galaxy Automation Pvt Ltd:OPP000016)</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>12 yrs</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>37 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5008,6 +5008,70 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RID68</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRAVEEN KUMAR                                  </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcR58PCwfmFPnv0NqULBayMB5Y52-yr3vSMjIVCnNLWFZw</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>HCL Tech</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Rashi</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Good Profile</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Networking and Security Presales Engineer (Galaxy Automation Pvt Ltd:OPP000017)</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>10 yrs</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>25.5 lpa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/resumes.xlsx
+++ b/excel_files/resumes.xlsx
@@ -4927,10 +4927,14 @@
           <t>Anshuman Rai</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>No Role</t>
+          <t>Presales Solution Architect (Galaxy Automation Pvt Ltd:OPP000016)</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
